--- a/candidatos.xlsx
+++ b/candidatos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/projects/node-workspace/python-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maestro\Documents\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7E4C4F-99A6-7A40-8970-F16D10E0B88F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25000" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25005" windowHeight="14895"/>
   </bookViews>
   <sheets>
     <sheet name="reporte (1)" sheetId="2" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="78">
   <si>
     <t>PRESIDENTE MUNICIPAL</t>
   </si>
@@ -216,13 +215,55 @@
   </si>
   <si>
     <t>barrazaalmazan</t>
+  </si>
+  <si>
+    <t>@Lorenzo_de_Cima</t>
+  </si>
+  <si>
+    <t>everardolopezc</t>
+  </si>
+  <si>
+    <t>emeterioochoa</t>
+  </si>
+  <si>
+    <t>JorgeMarquez_19</t>
+  </si>
+  <si>
+    <t>titilo78</t>
+  </si>
+  <si>
+    <t>saradessens</t>
+  </si>
+  <si>
+    <t>pujolirastorza</t>
+  </si>
+  <si>
+    <t>gatobarcenas</t>
+  </si>
+  <si>
+    <t>rboursc</t>
+  </si>
+  <si>
+    <t>HOMBRE</t>
+  </si>
+  <si>
+    <t>TemoGalindo</t>
+  </si>
+  <si>
+    <t>drruysanchez</t>
+  </si>
+  <si>
+    <t>JORGE MARQUEZ</t>
+  </si>
+  <si>
+    <t>JORGEMARQUEZING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +412,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -559,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -700,6 +749,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -746,7 +804,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -761,51 +819,56 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -832,7 +895,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1110,28 +1173,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
@@ -1154,7 +1217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1177,7 +1240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1197,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1220,7 +1283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1240,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1260,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1280,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1300,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1320,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1343,7 +1406,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1363,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1383,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1403,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1423,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1442,8 +1505,11 @@
       <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1466,7 +1532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1486,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1506,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1525,8 +1591,11 @@
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1545,8 +1614,11 @@
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1569,7 +1641,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1588,8 +1660,11 @@
       <c r="F22" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1609,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1628,8 +1703,11 @@
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1648,8 +1726,9 @@
       <c r="F25" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1668,8 +1747,11 @@
       <c r="F26" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1692,7 +1774,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1712,7 +1794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1731,8 +1813,11 @@
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1752,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1771,8 +1856,11 @@
       <c r="F31" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1791,8 +1879,11 @@
       <c r="F32" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1812,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1832,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1855,10 +1946,79 @@
         <v>63</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:F35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:F35"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://twitter.com/GustavoAlmadaBo" xr:uid="{A88C3307-E40E-CA4B-ADC0-0B8C5342DA49}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://twitter.com/GustavoAlmadaBo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="78" fitToHeight="0" orientation="landscape" r:id="rId2"/>

--- a/candidatos.xlsx
+++ b/candidatos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maestro\Documents\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/projects/node-workspace/recursos/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80024542-B92A-E34C-82FC-CAD6F21899E6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25005" windowHeight="14895"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25000" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte (1)" sheetId="2" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="77">
   <si>
     <t>PRESIDENTE MUNICIPAL</t>
   </si>
@@ -167,9 +168,6 @@
   </si>
   <si>
     <t>MARCO ANTONIO LUNA ESPINDOLA</t>
-  </si>
-  <si>
-    <t>NORBERTO BARRAZA ALMAZÁN</t>
   </si>
   <si>
     <t>NORBERTO BARRAZA ALMAZAN</t>
@@ -262,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -826,49 +824,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -895,7 +893,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1173,51 +1171,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1237,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1260,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1280,10 +1278,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1303,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1323,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1343,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1363,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1383,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1403,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1426,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1446,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1466,7 +1464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1486,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1506,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1529,10 +1527,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1552,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1592,10 +1590,10 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1615,10 +1613,10 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1638,10 +1636,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1661,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1684,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1704,10 +1702,10 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1728,7 +1726,7 @@
       </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1748,10 +1746,10 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1771,10 +1769,10 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1794,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1814,10 +1812,10 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1837,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1857,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1880,10 +1878,10 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1903,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1923,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1937,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1963,13 +1961,13 @@
         <v>28</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1986,18 +1984,18 @@
         <v>27</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>10</v>
@@ -2006,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F35"/>
+  <autoFilter ref="B1:F35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://twitter.com/GustavoAlmadaBo"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://twitter.com/GustavoAlmadaBo" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="78" fitToHeight="0" orientation="landscape" r:id="rId2"/>
